--- a/doc/unfinished/900系_ユースケース構成.xlsx
+++ b/doc/unfinished/900系_ユースケース構成.xlsx
@@ -366,18 +366,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MemberConfirmed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AccountConfirmationAction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MemberConfirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>―</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -391,6 +383,14 @@
   </si>
   <si>
     <t>MenuAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memberConfirmed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addressCheck</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1193,7 +1193,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10382250" y="428625"/>
+          <a:off x="11353800" y="428625"/>
           <a:ext cx="865622" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1223,7 +1223,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2017/06/12</a:t>
+            <a:t>2017/06/14</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1729,13 +1729,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>22</v>
@@ -1791,7 +1791,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
@@ -1841,13 +1841,13 @@
         <v>47</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>22</v>
@@ -1897,13 +1897,13 @@
         <v>38</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>22</v>

--- a/doc/unfinished/900系_ユースケース構成.xlsx
+++ b/doc/unfinished/900系_ユースケース構成.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10080" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC901" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -366,31 +367,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>AccountConfirmationAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MemberConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToNewAccountAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MenuAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountConfirmationLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MemberConfirmed</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AccountConfirmationAction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MemberConfirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>―</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ToNewAccountAction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AccountConfirmationLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MenuAction</t>
+    <t>AccountConfirmation.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainMenu.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -746,62 +755,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1579,7 +1588,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1604,20 +1613,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="48"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1650,55 +1659,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1716,26 +1725,26 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>55</v>
+      <c r="F8" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>22</v>
@@ -1750,15 +1759,15 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1772,26 +1781,26 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>54</v>
+      <c r="G10" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
@@ -1806,15 +1815,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1841,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>22</v>
@@ -1864,7 +1873,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="34"/>
@@ -1884,26 +1893,26 @@
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>55</v>
+      <c r="E14" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>22</v>
@@ -1918,15 +1927,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1963,14 +1972,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -1985,12 +1992,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/900系_ユースケース構成.xlsx
+++ b/doc/unfinished/900系_ユースケース構成.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10770" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC901" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -270,10 +271,6 @@
   </si>
   <si>
     <t>901_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Account.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -359,6 +356,42 @@
     <rPh sb="0" eb="2">
       <t>シッパイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewAccountAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewAccountLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountConfirmationAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToNewAccountAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountConfirmationLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MenuAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memberConfirmed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memberConfirm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -704,63 +737,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -770,6 +746,63 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1557,8 +1590,8 @@
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
     <col min="10" max="14" width="15.375" customWidth="1"/>
@@ -1572,20 +1605,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1618,29 +1651,29 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40" t="s">
+      <c r="G6" s="52"/>
+      <c r="H6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="44" t="s">
         <v>11</v>
       </c>
@@ -1652,21 +1685,21 @@
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1684,26 +1717,32 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="E8" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1712,15 +1751,15 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1734,26 +1773,32 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="C10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1762,20 +1807,20 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1785,70 +1830,82 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="E12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+        <v>44</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="56" t="s">
-        <v>50</v>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="C14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="D14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="E14" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1862,15 +1919,15 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="48"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+        <v>44</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1907,12 +1964,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -1927,14 +1986,12 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/900系_ユースケース構成.xlsx
+++ b/doc/unfinished/900系_ユースケース構成.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10770" windowHeight="6345"/>
+    <workbookView xWindow="5130" yWindow="3390" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC901" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -392,6 +392,22 @@
   </si>
   <si>
     <t>memberConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -747,62 +763,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1579,8 +1595,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1594,7 +1610,9 @@
     <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1605,20 +1623,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="48"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1651,55 +1669,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1717,25 +1735,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="55" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1744,22 +1762,32 @@
       <c r="I8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1773,25 +1801,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="55" t="s">
         <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1807,15 +1835,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1885,25 +1913,25 @@
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="55" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1912,22 +1940,32 @@
       <c r="I14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1964,14 +2002,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -1986,12 +2022,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/900系_ユースケース構成.xlsx
+++ b/doc/unfinished/900系_ユースケース構成.xlsx
@@ -10,7 +10,6 @@
     <sheet name="UC901" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -407,7 +406,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name,MemberCode</t>
+    <t>Member</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -763,6 +762,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,33 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,8 +1594,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,20 +1622,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1669,55 +1668,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="52"/>
+      <c r="H6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1735,25 +1734,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1779,15 +1778,15 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1801,25 +1800,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="38" t="s">
         <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1835,15 +1834,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1913,25 +1912,25 @@
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1957,15 +1956,15 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2002,12 +2001,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -2022,14 +2023,12 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/900系_ユースケース構成.xlsx
+++ b/doc/unfinished/900系_ユースケース構成.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3390" windowWidth="15210" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC901" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -406,7 +407,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Member</t>
+    <t>Name,MemberCode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -762,62 +763,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1594,7 +1595,7 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1622,20 +1623,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="48"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1668,55 +1669,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1734,25 +1735,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="55" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1778,15 +1779,15 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1800,25 +1801,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="55" t="s">
         <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1834,15 +1835,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1912,25 +1913,25 @@
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="55" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1956,15 +1957,15 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2001,14 +2002,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -2023,12 +2022,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/900系_ユースケース構成.xlsx
+++ b/doc/unfinished/900系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
+    <workbookView xWindow="5190" yWindow="4035" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC901" sheetId="4" r:id="rId1"/>
@@ -391,10 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>memberConfirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,6 +404,10 @@
   </si>
   <si>
     <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkAddress</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -763,6 +763,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,33 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,8 +1595,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,20 +1623,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1669,55 +1669,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="52"/>
+      <c r="H6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1735,25 +1735,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1763,31 +1763,31 @@
         <v>42</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1801,26 +1801,26 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="55" t="s">
-        <v>58</v>
+      <c r="G10" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
@@ -1835,15 +1835,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1913,25 +1913,25 @@
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1941,31 +1941,31 @@
         <v>30</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2002,12 +2002,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -2022,14 +2024,12 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/900系_ユースケース構成.xlsx
+++ b/doc/unfinished/900系_ユースケース構成.xlsx
@@ -403,11 +403,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>checkAddress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode,Cart</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -763,62 +763,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,8 +1595,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1611,7 +1611,7 @@
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
     <col min="10" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
     <col min="14" max="14" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1623,20 +1623,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="48"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1669,55 +1669,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1735,25 +1735,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="55" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1779,15 +1779,15 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1801,26 +1801,26 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>62</v>
+      <c r="G10" s="55" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
@@ -1835,15 +1835,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1913,25 +1913,25 @@
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="55" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1950,22 +1950,22 @@
         <v>58</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2002,14 +2002,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -2024,12 +2022,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
